--- a/biology/Botanique/Adromischus_cooperi/Adromischus_cooperi.xlsx
+++ b/biology/Botanique/Adromischus_cooperi/Adromischus_cooperi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adromischus cooperi est une espèce du genre Adromischus appartenant à la famille des Crassulaceae.
 Elle est originaire d'Afrique du Sud.
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Source[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Source.
 Adromischus cooperi est une plante de petite taille (10 cm) presque acaule au port compact. Les feuilles sont fortement charnues et étroites à la base. Elles présentent une particularité qui permet de les identifier : des extrémités ondulées.
 En cas d'exposition très ensoleillée, elles présentent des taches de couleur bordeaux ou brun.
 C'est une espèce à croissance lente et légèrement arbusive. Elle forme avec le temps (plusieurs années) un ou plusieurs troncs assez massifs. 
@@ -549,9 +563,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Source[1] :.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Source :.
 Plante de culture facile. A besoin d'un fort ensoleillement pour présenter des taches ornementales de couleur sombre sur les feuilles.
 Supporte la sécheresse qui a pour conséquence de faire maigrir les feuilles qui regonfleront avec des arrosages.
 Se reproduit facilement par bouturage des feuilles en période végétative.
